--- a/tables/2022-06/regional_table_Jun.xlsx
+++ b/tables/2022-06/regional_table_Jun.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr19m223/Documents/COVID_projects/SequencingStats_and_Variants/tables/2022-06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4820DD-7AC8-284B-AFAD-424A396E15B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFCC040-8050-3749-B987-9CE6B32140EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34860" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022-06-01 to 2022-06-30" sheetId="1" r:id="rId1"/>
+    <sheet name="2022-06-05 to 2022-06-26" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Sequenced samples</t>
   </si>
@@ -40,12 +40,6 @@
     <t>Percentage Delta (95% CI)</t>
   </si>
   <si>
-    <t>Omicron (BA.1)</t>
-  </si>
-  <si>
-    <t>Percentage Omicron (BA.1) (95% CI)</t>
-  </si>
-  <si>
     <t>Omicron (BA.2)</t>
   </si>
   <si>
@@ -94,22 +88,22 @@
     <t>Region 6</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.5</t>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.9</t>
+    <t>1.2</t>
   </si>
   <si>
     <t>&lt;0.1</t>
@@ -118,94 +112,91 @@
     <t>-</t>
   </si>
   <si>
-    <t>2.6 (0.1-13.5)</t>
-  </si>
-  <si>
-    <t>0.3 (0.0-1.6)</t>
-  </si>
-  <si>
-    <t>0.2 (0.0-1.2)</t>
-  </si>
-  <si>
-    <t>37.5 (35.0-40.0)</t>
-  </si>
-  <si>
-    <t>29.6 (25.4-33.9)</t>
-  </si>
-  <si>
-    <t>50.6 (44.0-57.2)</t>
-  </si>
-  <si>
-    <t>39.0 (33.1-45.0)</t>
-  </si>
-  <si>
-    <t>35.9 (21.2-52.8)</t>
-  </si>
-  <si>
-    <t>39.5 (34.2-44.9)</t>
-  </si>
-  <si>
-    <t>38.4 (29.8-47.5)</t>
-  </si>
-  <si>
-    <t>5.8 (4.7-7.1)</t>
-  </si>
-  <si>
-    <t>6.4 (4.4-9.0)</t>
-  </si>
-  <si>
-    <t>6.4 (3.6-10.4)</t>
-  </si>
-  <si>
-    <t>4.4 (2.3-7.6)</t>
-  </si>
-  <si>
-    <t>5.6 (3.4-8.7)</t>
-  </si>
-  <si>
-    <t>6.4 (2.8-12.2)</t>
-  </si>
-  <si>
-    <t>50.9 (48.3-53.5)</t>
-  </si>
-  <si>
-    <t>60.8 (56.2-65.3)</t>
-  </si>
-  <si>
-    <t>38.2 (31.9-44.8)</t>
-  </si>
-  <si>
-    <t>49.3 (43.2-55.4)</t>
-  </si>
-  <si>
-    <t>41.0 (25.6-57.9)</t>
-  </si>
-  <si>
-    <t>47.2 (41.7-52.7)</t>
-  </si>
-  <si>
-    <t>49.6 (40.5-58.7)</t>
-  </si>
-  <si>
-    <t>5.7 (4.5-6.9)</t>
-  </si>
-  <si>
-    <t>3.0 (1.6-5.0)</t>
-  </si>
-  <si>
-    <t>4.7 (2.4-8.3)</t>
-  </si>
-  <si>
-    <t>7.4 (4.5-11.1)</t>
-  </si>
-  <si>
-    <t>17.9 (7.5-33.5)</t>
-  </si>
-  <si>
-    <t>7.4 (4.9-10.8)</t>
-  </si>
-  <si>
-    <t>5.6 (2.3-11.2)</t>
+    <t>4.2 (0.1-21.1)</t>
+  </si>
+  <si>
+    <t>0.4 (0.0-2.1)</t>
+  </si>
+  <si>
+    <t>30.8 (28.2-33.6)</t>
+  </si>
+  <si>
+    <t>26.3 (21.9-31.1)</t>
+  </si>
+  <si>
+    <t>35.8 (28.4-43.7)</t>
+  </si>
+  <si>
+    <t>35.7 (29.6-42.2)</t>
+  </si>
+  <si>
+    <t>25.0 (9.8-46.7)</t>
+  </si>
+  <si>
+    <t>32.1 (26.5-38.1)</t>
+  </si>
+  <si>
+    <t>30.9 (21.7-41.2)</t>
+  </si>
+  <si>
+    <t>5.7 (4.4-7.2)</t>
+  </si>
+  <si>
+    <t>6.4 (4.2-9.4)</t>
+  </si>
+  <si>
+    <t>8.0 (4.3-13.3)</t>
+  </si>
+  <si>
+    <t>4.6 (2.3-8.1)</t>
+  </si>
+  <si>
+    <t>4.6 (2.4-7.9)</t>
+  </si>
+  <si>
+    <t>5.3 (1.7-12.0)</t>
+  </si>
+  <si>
+    <t>56.9 (54.1-59.8)</t>
+  </si>
+  <si>
+    <t>64.6 (59.5-69.5)</t>
+  </si>
+  <si>
+    <t>50.0 (42.1-57.9)</t>
+  </si>
+  <si>
+    <t>51.7 (45.1-58.2)</t>
+  </si>
+  <si>
+    <t>50.0 (29.1-70.9)</t>
+  </si>
+  <si>
+    <t>53.8 (47.6-60.0)</t>
+  </si>
+  <si>
+    <t>57.4 (46.8-67.6)</t>
+  </si>
+  <si>
+    <t>6.4 (5.0-7.9)</t>
+  </si>
+  <si>
+    <t>2.7 (1.3-4.9)</t>
+  </si>
+  <si>
+    <t>6.2 (3.0-11.1)</t>
+  </si>
+  <si>
+    <t>8.0 (4.9-12.2)</t>
+  </si>
+  <si>
+    <t>20.8 (7.1-42.2)</t>
+  </si>
+  <si>
+    <t>9.2 (6.0-13.3)</t>
+  </si>
+  <si>
+    <t>6.4 (2.4-13.4)</t>
   </si>
 </sst>
 </file>
@@ -557,15 +548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -611,403 +602,355 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
       <c r="B2">
-        <v>1503</v>
+        <v>1180</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2">
+        <v>364</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2">
+        <v>672</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>373</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>241</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>563</v>
-      </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>85</v>
+      </c>
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="L2">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="N2">
-        <v>765</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="L5">
+        <v>123</v>
+      </c>
+      <c r="M5" t="s">
         <v>48</v>
       </c>
-      <c r="P2">
-        <v>85</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="N5">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
         <v>55</v>
       </c>
-      <c r="R2">
-        <v>62</v>
+      <c r="P5">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>467</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3">
-        <v>138</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3">
-        <v>284</v>
-      </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B4">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4">
-        <v>118</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4">
-        <v>89</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P4">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>272</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>106</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5">
-        <v>134</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J7">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L7">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N7">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P7">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B8">
-        <v>125</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J8">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="N8">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
